--- a/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
+++ b/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Canada\Models\eps-1.3.2-canada (wip-D)\InputData\indst\BIFUbC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\indst\BIFUbC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9733B26-0D83-44C2-A471-FE40EE62402C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="20240" windowHeight="9000" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="20235" windowHeight="9000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,8 +36,13 @@
     <definedName name="BTUperGJ">#REF!</definedName>
     <definedName name="Electricity_Share">Electricity!$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="337">
   <si>
     <t>Year</t>
   </si>
@@ -1430,11 +1436,14 @@
   <si>
     <t>Share of Total Electricity Use from Sales</t>
   </si>
+  <si>
+    <t>This is now Table: 25-10-0021-01 (formerly CANSIM  127-0008)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -2253,13 +2262,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2273,9 +2275,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2284,6 +2283,16 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2323,26 +2332,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="8"/>
-    <cellStyle name="Footnotes: all except top row" xfId="11"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="1"/>
-    <cellStyle name="Header: top rows" xfId="3"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: bottom row" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header: top rows" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="19"/>
-    <cellStyle name="Normal 3" xfId="13"/>
-    <cellStyle name="Normal 4" xfId="14"/>
-    <cellStyle name="Normal 5" xfId="15"/>
-    <cellStyle name="Normal 58" xfId="17"/>
-    <cellStyle name="Normal 6" xfId="16"/>
-    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 58" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 6" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="18" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="7"/>
-    <cellStyle name="Section Break: parent row" xfId="4"/>
-    <cellStyle name="Table title" xfId="12"/>
+    <cellStyle name="Section Break" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Table title" xfId="12" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2371,7 +2380,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2388,180 +2397,180 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A7:AK17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A7:AK17" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A26:AK34" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A26:AK34" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A43:AK44" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A43:AK44" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A54:AK59" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A54:AK59" totalsRowShown="0">
   <tableColumns count="37">
-    <tableColumn id="1" name="_"/>
-    <tableColumn id="2" name="2005"/>
-    <tableColumn id="3" name="2006"/>
-    <tableColumn id="4" name="2007"/>
-    <tableColumn id="5" name="2008"/>
-    <tableColumn id="6" name="2009"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="18" name="2021"/>
-    <tableColumn id="19" name="2022"/>
-    <tableColumn id="20" name="2023"/>
-    <tableColumn id="21" name="2024"/>
-    <tableColumn id="22" name="2025"/>
-    <tableColumn id="23" name="2026"/>
-    <tableColumn id="24" name="2027"/>
-    <tableColumn id="25" name="2028"/>
-    <tableColumn id="26" name="2029"/>
-    <tableColumn id="27" name="2030"/>
-    <tableColumn id="28" name="2031"/>
-    <tableColumn id="29" name="2032"/>
-    <tableColumn id="30" name="2033"/>
-    <tableColumn id="31" name="2034"/>
-    <tableColumn id="32" name="2035"/>
-    <tableColumn id="33" name="2036"/>
-    <tableColumn id="34" name="2037"/>
-    <tableColumn id="35" name="2038"/>
-    <tableColumn id="36" name="2039"/>
-    <tableColumn id="37" name="2040"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="_"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2006"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2007"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2008"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="2020"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="2021"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="2022"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="2023"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="2024"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="2025"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="2026"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="2027"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="2028"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="2029"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="2030"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="2031"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="2032"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="2033"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="2034"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="2035"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="2036"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="2037"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="2038"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" name="2039"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" name="2040"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2643,6 +2652,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2678,6 +2704,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2853,28 +2896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="60.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2882,194 +2925,194 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>947817120</v>
       </c>
@@ -3077,10 +3120,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -3093,23 +3136,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>272</v>
       </c>
@@ -3118,7 +3160,7 @@
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>273</v>
       </c>
@@ -3127,14 +3169,14 @@
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="71"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
         <v>274</v>
       </c>
@@ -3143,7 +3185,7 @@
       <c r="D4" s="70"/>
       <c r="E4" s="70"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73"/>
       <c r="B5" s="74" t="s">
         <v>275</v>
@@ -3158,7 +3200,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="103" t="s">
         <v>43</v>
@@ -3167,7 +3209,7 @@
       <c r="D6" s="104"/>
       <c r="E6" s="105"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
         <v>163</v>
       </c>
@@ -3176,7 +3218,7 @@
       <c r="D7" s="107"/>
       <c r="E7" s="108"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3235,7 @@
         <v>660200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3252,7 @@
         <v>168121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="75" t="s">
         <v>46</v>
       </c>
@@ -3227,7 +3269,7 @@
         <v>24761</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="75" t="s">
         <v>165</v>
       </c>
@@ -3244,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
         <v>166</v>
       </c>
@@ -3261,7 +3303,7 @@
         <v>27997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
         <v>167</v>
       </c>
@@ -3278,7 +3320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
         <v>168</v>
       </c>
@@ -3295,7 +3337,7 @@
         <v>-98293</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>169</v>
       </c>
@@ -3312,7 +3354,7 @@
         <v>390562</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>171</v>
       </c>
@@ -3321,7 +3363,7 @@
       <c r="D16" s="107"/>
       <c r="E16" s="108"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
         <v>42</v>
       </c>
@@ -3338,7 +3380,7 @@
         <v>18094</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
         <v>278</v>
       </c>
@@ -3355,7 +3397,7 @@
         <v>66705</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
         <v>48</v>
       </c>
@@ -3372,7 +3414,7 @@
         <v>439173</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
         <v>49</v>
       </c>
@@ -3389,7 +3431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
         <v>50</v>
       </c>
@@ -3406,7 +3448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
         <v>51</v>
       </c>
@@ -3423,7 +3465,7 @@
         <v>128600</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
         <v>176</v>
       </c>
@@ -3440,7 +3482,7 @@
         <v>60498</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>177</v>
       </c>
@@ -3457,7 +3499,7 @@
         <v>49778</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>178</v>
       </c>
@@ -3474,7 +3516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
         <v>179</v>
       </c>
@@ -3491,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
         <v>180</v>
       </c>
@@ -3508,7 +3550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75" t="s">
         <v>181</v>
       </c>
@@ -3525,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="75" t="s">
         <v>182</v>
       </c>
@@ -3542,7 +3584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
         <v>183</v>
       </c>
@@ -3559,7 +3601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
         <v>184</v>
       </c>
@@ -3576,7 +3618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
         <v>185</v>
       </c>
@@ -3593,7 +3635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>187</v>
       </c>
@@ -3610,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
         <v>188</v>
       </c>
@@ -3627,7 +3669,7 @@
         <v>10446</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
         <v>197</v>
       </c>
@@ -3644,7 +3686,7 @@
         <v>10446</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
         <v>198</v>
       </c>
@@ -3661,7 +3703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
         <v>62</v>
       </c>
@@ -3678,7 +3720,7 @@
         <v>8932</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>199</v>
       </c>
@@ -3695,7 +3737,7 @@
         <v>14093</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
         <v>200</v>
       </c>
@@ -3712,7 +3754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
         <v>201</v>
       </c>
@@ -3729,7 +3771,7 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>202</v>
       </c>
@@ -3757,26 +3799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.90625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -3895,7 +3937,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -4051,7 +4093,7 @@
         <v>8748736138841.4346</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -4207,7 +4249,7 @@
         <v>23893839664285.402</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4363,7 +4405,7 @@
         <v>9920308027211.3984</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -4519,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -4675,7 +4717,7 @@
         <v>17179210622968.195</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +5029,7 @@
         <v>84212495086277.813</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -5299,7 +5341,7 @@
         <v>239960062679365.59</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -5455,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -5611,7 +5653,7 @@
         <v>125810215855035.67</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5767,7 +5809,7 @@
         <v>13448861155569.744</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -5923,7 +5965,7 @@
         <v>35393924745696.445</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -6079,7 +6121,7 @@
         <v>102547133890492.75</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -6235,7 +6277,7 @@
         <v>111633647119716.97</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -6391,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -6547,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -6703,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -6859,7 +6901,7 @@
         <v>171389020925254.16</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -7015,7 +7057,7 @@
         <v>15280557300061.252</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -7171,7 +7213,7 @@
         <v>1508063247792550.3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -7327,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -7483,7 +7525,7 @@
         <v>896053004507855</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -7639,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -7795,7 +7837,7 @@
         <v>539775225761900</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -7951,7 +7993,7 @@
         <v>4116645316418.0723</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -8107,7 +8149,7 @@
         <v>395028441451341.31</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -8263,7 +8305,7 @@
         <v>447411311700339.44</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8419,7 +8461,7 @@
         <v>104691940694004.73</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -8575,7 +8617,7 @@
         <v>14001206563570.938</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -8731,7 +8773,7 @@
         <v>40384636490642.508</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -8887,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -9043,7 +9085,7 @@
         <v>55372915432603.891</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -9199,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -9355,7 +9397,7 @@
         <v>228692908229303.72</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
@@ -9511,7 +9553,7 @@
         <v>3459365812.1160269</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
@@ -9667,7 +9709,7 @@
         <v>20563623509155.039</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
@@ -9823,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>68</v>
       </c>
@@ -9979,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
@@ -10135,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
@@ -10291,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
@@ -10447,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
@@ -10603,7 +10645,7 @@
         <v>130994652085460.25</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -10759,7 +10801,7 @@
         <v>4266551168276.4336</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
@@ -10915,7 +10957,7 @@
         <v>934720642433750.63</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -11071,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
@@ -11227,7 +11269,7 @@
         <v>469320628510407.63</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -11383,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -11421,7 +11463,7 @@
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -11459,7 +11501,7 @@
       <c r="AL52" s="8"/>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -11497,38 +11539,38 @@
       <c r="AL53" s="8"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
       <c r="E55" s="64"/>
       <c r="F55" s="64"/>
       <c r="G55" s="64"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B56" s="62"/>
       <c r="C56" s="62"/>
       <c r="D56" s="62"/>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D57" s="64"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B59" s="58"/>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
       <c r="F59" s="58"/>
       <c r="G59" s="58"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="D60" s="58"/>
@@ -11536,7 +11578,7 @@
       <c r="F60" s="58"/>
       <c r="G60" s="58"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
@@ -11545,7 +11587,7 @@
       <c r="F61" s="63"/>
       <c r="G61" s="63"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
       <c r="B62" s="63"/>
       <c r="C62" s="63"/>
@@ -11554,7 +11596,7 @@
       <c r="F62" s="63"/>
       <c r="G62" s="63"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
       <c r="B63" s="63"/>
       <c r="C63" s="63"/>
@@ -11563,7 +11605,7 @@
       <c r="F63" s="63"/>
       <c r="G63" s="63"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
   </sheetData>
@@ -11572,7 +11614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11582,13 +11624,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11701,7 +11743,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -11850,7 +11892,7 @@
         <v>8748736138841.4346</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -11999,7 +12041,7 @@
         <v>171389020925254.16</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -12148,7 +12190,7 @@
         <v>35393924745696.445</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -12297,7 +12339,7 @@
         <v>84212495086277.813</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -12446,7 +12488,7 @@
         <v>130994652085460.25</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -12595,7 +12637,7 @@
         <v>20563623509155.039</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -12744,7 +12786,7 @@
         <v>40384636490642.508</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -12899,7 +12941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12909,14 +12951,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13030,7 +13072,7 @@
       </c>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -13179,7 +13221,7 @@
         <v>23893839664285.402</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -13328,7 +13370,7 @@
         <v>15280557300061.252</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -13477,7 +13519,7 @@
         <v>102547133890492.75</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13626,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -13775,7 +13817,7 @@
         <v>4266551168276.4336</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -13924,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -14073,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -14228,7 +14270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14238,14 +14280,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14358,7 +14400,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -14507,7 +14549,7 @@
         <v>9920308027211.3984</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -14656,7 +14698,7 @@
         <v>1508063247792550.3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -14805,7 +14847,7 @@
         <v>111633647119716.97</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -14954,7 +14996,7 @@
         <v>239960062679365.59</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -15103,7 +15145,7 @@
         <v>934720642433750.63</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -15252,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -15401,7 +15443,7 @@
         <v>55372915432603.891</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -15556,7 +15598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15566,14 +15608,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15686,7 +15728,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -15835,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -15984,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -16133,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -16282,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -16431,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -16580,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -16729,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -16884,7 +16926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16894,14 +16936,14 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17014,7 +17056,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -17163,7 +17205,7 @@
         <v>17179210622968.195</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -17312,7 +17354,7 @@
         <v>896053004507855</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -17461,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17610,7 +17652,7 @@
         <v>125810215855035.67</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -17759,7 +17801,7 @@
         <v>469320628510407.63</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -17908,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -18057,7 +18099,7 @@
         <v>228692908229303.72</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -18212,7 +18254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18222,14 +18264,14 @@
       <selection activeCell="B4" sqref="B2:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18342,7 +18384,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -18491,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -18640,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -18789,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -18938,7 +18980,7 @@
         <v>13448861155569.744</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -19087,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -19236,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -19385,7 +19427,7 @@
         <v>3459365812.1160269</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -19540,49 +19582,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A356" sqref="A356:H373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="33">
         <v>1990</v>
@@ -19601,7 +19643,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>221</v>
       </c>
@@ -19622,18 +19664,18 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
@@ -19654,7 +19696,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>111</v>
       </c>
@@ -19675,7 +19717,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>211</v>
       </c>
@@ -19696,7 +19738,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>212</v>
       </c>
@@ -19717,7 +19759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>213</v>
       </c>
@@ -19738,7 +19780,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>214</v>
       </c>
@@ -19759,7 +19801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>22</v>
       </c>
@@ -19780,7 +19822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>215</v>
       </c>
@@ -19801,7 +19843,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>216</v>
       </c>
@@ -19822,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>217</v>
       </c>
@@ -19843,40 +19885,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="87" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="88" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="33">
         <v>1990</v>
@@ -19895,7 +19937,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>208</v>
       </c>
@@ -19916,18 +19958,18 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="90" t="s">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
@@ -19948,7 +19990,7 @@
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>111</v>
       </c>
@@ -19969,7 +20011,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>211</v>
       </c>
@@ -19990,7 +20032,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>212</v>
       </c>
@@ -20011,7 +20053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>213</v>
       </c>
@@ -20032,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>214</v>
       </c>
@@ -20053,7 +20095,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>22</v>
       </c>
@@ -20074,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>215</v>
       </c>
@@ -20095,7 +20137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>216</v>
       </c>
@@ -20116,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>217</v>
       </c>
@@ -20137,40 +20179,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="85" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="87" t="s">
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="88" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="33">
         <v>1990</v>
@@ -20189,7 +20231,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>219</v>
       </c>
@@ -20210,18 +20252,18 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="90" t="s">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="92"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="89"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>23</v>
       </c>
@@ -20242,7 +20284,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>111</v>
       </c>
@@ -20263,7 +20305,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>211</v>
       </c>
@@ -20284,7 +20326,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>212</v>
       </c>
@@ -20305,7 +20347,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>213</v>
       </c>
@@ -20326,7 +20368,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>214</v>
       </c>
@@ -20347,7 +20389,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
@@ -20368,7 +20410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>215</v>
       </c>
@@ -20389,7 +20431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>216</v>
       </c>
@@ -20410,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>217</v>
       </c>
@@ -20431,20 +20473,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="93" t="s">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="33">
         <v>1990</v>
@@ -20469,7 +20511,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>223</v>
       </c>
@@ -20496,20 +20538,20 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="90" t="s">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>23</v>
       </c>
@@ -20536,7 +20578,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>111</v>
       </c>
@@ -20563,7 +20605,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
         <v>211</v>
       </c>
@@ -20590,7 +20632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>212</v>
       </c>
@@ -20617,7 +20659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
         <v>213</v>
       </c>
@@ -20644,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>214</v>
       </c>
@@ -20671,7 +20713,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>22</v>
       </c>
@@ -20698,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>215</v>
       </c>
@@ -20725,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
         <v>216</v>
       </c>
@@ -20752,7 +20794,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>217</v>
       </c>
@@ -20779,40 +20821,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="85" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="87" t="s">
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-    </row>
-    <row r="69" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="88" t="s">
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="33">
         <v>1990</v>
@@ -20831,7 +20873,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>227</v>
       </c>
@@ -20852,18 +20894,18 @@
         <v>305.10000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="90" t="s">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="92"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="89"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>23</v>
       </c>
@@ -20884,7 +20926,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>111</v>
       </c>
@@ -20905,7 +20947,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>211</v>
       </c>
@@ -20926,7 +20968,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
         <v>212</v>
       </c>
@@ -20947,7 +20989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
         <v>213</v>
       </c>
@@ -20968,7 +21010,7 @@
         <v>220.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
         <v>214</v>
       </c>
@@ -20989,7 +21031,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
         <v>22</v>
       </c>
@@ -21010,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>215</v>
       </c>
@@ -21031,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
         <v>216</v>
       </c>
@@ -21052,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
         <v>217</v>
       </c>
@@ -21073,43 +21115,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="85" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="87" t="s">
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-    </row>
-    <row r="86" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="88" t="s">
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="32"/>
       <c r="B87" s="33">
         <v>1990</v>
@@ -21131,7 +21173,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>232</v>
       </c>
@@ -21155,19 +21197,19 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="90" t="s">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="92"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="88"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
         <v>23</v>
       </c>
@@ -21191,7 +21233,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>111</v>
       </c>
@@ -21215,7 +21257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
         <v>211</v>
       </c>
@@ -21239,7 +21281,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>212</v>
       </c>
@@ -21263,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
         <v>213</v>
       </c>
@@ -21287,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
         <v>214</v>
       </c>
@@ -21311,7 +21353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
         <v>22</v>
       </c>
@@ -21335,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>215</v>
       </c>
@@ -21359,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
         <v>216</v>
       </c>
@@ -21383,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
         <v>217</v>
       </c>
@@ -21407,40 +21449,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="85" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="87" t="s">
+      <c r="B101" s="94"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="94"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="86"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-    </row>
-    <row r="103" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="88" t="s">
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="32"/>
       <c r="B104" s="33">
         <v>1990</v>
@@ -21459,7 +21501,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>234</v>
       </c>
@@ -21480,18 +21522,18 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="90" t="s">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="92"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="88"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="89"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
         <v>23</v>
       </c>
@@ -21512,7 +21554,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
         <v>111</v>
       </c>
@@ -21533,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="37" t="s">
         <v>211</v>
       </c>
@@ -21554,7 +21596,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="39" t="s">
         <v>212</v>
       </c>
@@ -21575,7 +21617,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
         <v>213</v>
       </c>
@@ -21596,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
         <v>214</v>
       </c>
@@ -21617,7 +21659,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="s">
         <v>22</v>
       </c>
@@ -21638,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
         <v>215</v>
       </c>
@@ -21659,7 +21701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="s">
         <v>216</v>
       </c>
@@ -21680,7 +21722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="41" t="s">
         <v>217</v>
       </c>
@@ -21701,40 +21743,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="85" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B118" s="86"/>
-      <c r="C118" s="86"/>
-      <c r="D118" s="86"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="86"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="87" t="s">
+      <c r="B118" s="94"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="94"/>
+      <c r="E118" s="94"/>
+      <c r="F118" s="94"/>
+      <c r="G118" s="94"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="86"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="86"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="86"/>
-    </row>
-    <row r="120" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="88" t="s">
+      <c r="B119" s="94"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="94"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="94"/>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="86"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="32"/>
       <c r="B121" s="33">
         <v>1990</v>
@@ -21753,7 +21795,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
         <v>236</v>
       </c>
@@ -21774,18 +21816,18 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="90" t="s">
+    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="92"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="88"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="89"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="37" t="s">
         <v>23</v>
       </c>
@@ -21806,7 +21848,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="39" t="s">
         <v>111</v>
       </c>
@@ -21827,7 +21869,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="37" t="s">
         <v>211</v>
       </c>
@@ -21848,7 +21890,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
         <v>212</v>
       </c>
@@ -21869,7 +21911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="37" t="s">
         <v>213</v>
       </c>
@@ -21890,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="39" t="s">
         <v>214</v>
       </c>
@@ -21911,7 +21953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
         <v>22</v>
       </c>
@@ -21932,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="39" t="s">
         <v>215</v>
       </c>
@@ -21953,7 +21995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="37" t="s">
         <v>216</v>
       </c>
@@ -21974,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="41" t="s">
         <v>217</v>
       </c>
@@ -21995,40 +22037,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="85" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="86"/>
-      <c r="C135" s="86"/>
-      <c r="D135" s="86"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="86"/>
-      <c r="G135" s="86"/>
-    </row>
-    <row r="136" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="87" t="s">
+      <c r="B135" s="94"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="86"/>
-      <c r="C136" s="86"/>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86"/>
-      <c r="F136" s="86"/>
-      <c r="G136" s="86"/>
-    </row>
-    <row r="137" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="88" t="s">
+      <c r="B136" s="94"/>
+      <c r="C136" s="94"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="94"/>
+      <c r="F136" s="94"/>
+      <c r="G136" s="94"/>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="B137" s="89"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="89"/>
-      <c r="G137" s="89"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="86"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="86"/>
+      <c r="G137" s="86"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="32"/>
       <c r="B138" s="33">
         <v>1990</v>
@@ -22047,7 +22089,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="34" t="s">
         <v>238</v>
       </c>
@@ -22068,18 +22110,18 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="90" t="s">
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B140" s="91"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="91"/>
-      <c r="F140" s="91"/>
-      <c r="G140" s="92"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="88"/>
+      <c r="C140" s="88"/>
+      <c r="D140" s="88"/>
+      <c r="E140" s="88"/>
+      <c r="F140" s="88"/>
+      <c r="G140" s="89"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
         <v>23</v>
       </c>
@@ -22100,7 +22142,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="39" t="s">
         <v>111</v>
       </c>
@@ -22121,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="37" t="s">
         <v>211</v>
       </c>
@@ -22142,7 +22184,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="39" t="s">
         <v>212</v>
       </c>
@@ -22163,7 +22205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="37" t="s">
         <v>213</v>
       </c>
@@ -22184,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
         <v>214</v>
       </c>
@@ -22205,7 +22247,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="37" t="s">
         <v>22</v>
       </c>
@@ -22226,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="39" t="s">
         <v>215</v>
       </c>
@@ -22247,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="37" t="s">
         <v>216</v>
       </c>
@@ -22268,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43" t="s">
         <v>217</v>
       </c>
@@ -22289,46 +22331,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" s="85" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
-      <c r="E152" s="86"/>
-      <c r="F152" s="86"/>
-      <c r="G152" s="86"/>
-      <c r="H152" s="86"/>
-      <c r="I152" s="86"/>
-    </row>
-    <row r="153" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="87" t="s">
+      <c r="B152" s="94"/>
+      <c r="C152" s="94"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="94"/>
+      <c r="F152" s="94"/>
+      <c r="G152" s="94"/>
+      <c r="H152" s="94"/>
+      <c r="I152" s="94"/>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="86"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="86"/>
-      <c r="E153" s="86"/>
-      <c r="F153" s="86"/>
-      <c r="G153" s="86"/>
-      <c r="H153" s="86"/>
-      <c r="I153" s="86"/>
-    </row>
-    <row r="154" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="88" t="s">
+      <c r="B153" s="94"/>
+      <c r="C153" s="94"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="94"/>
+      <c r="F153" s="94"/>
+      <c r="G153" s="94"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="94"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="B154" s="89"/>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="89"/>
-      <c r="G154" s="89"/>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-    </row>
-    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B154" s="86"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="86"/>
+      <c r="G154" s="86"/>
+      <c r="H154" s="86"/>
+      <c r="I154" s="86"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="32"/>
       <c r="B155" s="33">
         <v>1990</v>
@@ -22353,7 +22395,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="34" t="s">
         <v>240</v>
       </c>
@@ -22380,20 +22422,20 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="90" t="s">
+    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B157" s="91"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="91"/>
-      <c r="I157" s="92"/>
-    </row>
-    <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B157" s="88"/>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="88"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="89"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="37" t="s">
         <v>23</v>
       </c>
@@ -22420,7 +22462,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="39" t="s">
         <v>111</v>
       </c>
@@ -22447,7 +22489,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="37" t="s">
         <v>211</v>
       </c>
@@ -22474,7 +22516,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="39" t="s">
         <v>212</v>
       </c>
@@ -22501,7 +22543,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="37" t="s">
         <v>213</v>
       </c>
@@ -22528,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="39" t="s">
         <v>214</v>
       </c>
@@ -22555,7 +22597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="37" t="s">
         <v>22</v>
       </c>
@@ -22582,7 +22624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="39" t="s">
         <v>215</v>
       </c>
@@ -22609,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="37" t="s">
         <v>216</v>
       </c>
@@ -22636,7 +22678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="41" t="s">
         <v>217</v>
       </c>
@@ -22663,46 +22705,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169" s="85" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B169" s="86"/>
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
-      <c r="E169" s="86"/>
-      <c r="F169" s="86"/>
-      <c r="G169" s="86"/>
-      <c r="H169" s="86"/>
-      <c r="I169" s="86"/>
-    </row>
-    <row r="170" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="87" t="s">
+      <c r="B169" s="94"/>
+      <c r="C169" s="94"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="94"/>
+      <c r="F169" s="94"/>
+      <c r="G169" s="94"/>
+      <c r="H169" s="94"/>
+      <c r="I169" s="94"/>
+    </row>
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B170" s="86"/>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
-      <c r="E170" s="86"/>
-      <c r="F170" s="86"/>
-      <c r="G170" s="86"/>
-      <c r="H170" s="86"/>
-      <c r="I170" s="86"/>
-    </row>
-    <row r="171" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="88" t="s">
+      <c r="B170" s="94"/>
+      <c r="C170" s="94"/>
+      <c r="D170" s="94"/>
+      <c r="E170" s="94"/>
+      <c r="F170" s="94"/>
+      <c r="G170" s="94"/>
+      <c r="H170" s="94"/>
+      <c r="I170" s="94"/>
+    </row>
+    <row r="171" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="B171" s="89"/>
-      <c r="C171" s="89"/>
-      <c r="D171" s="89"/>
-      <c r="E171" s="89"/>
-      <c r="F171" s="89"/>
-      <c r="G171" s="89"/>
-      <c r="H171" s="89"/>
-      <c r="I171" s="89"/>
-    </row>
-    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B171" s="86"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="86"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="86"/>
+      <c r="G171" s="86"/>
+      <c r="H171" s="86"/>
+      <c r="I171" s="86"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="32"/>
       <c r="B172" s="33">
         <v>1990</v>
@@ -22727,7 +22769,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="34" t="s">
         <v>242</v>
       </c>
@@ -22754,20 +22796,20 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="90" t="s">
+    <row r="174" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="91"/>
-      <c r="C174" s="91"/>
-      <c r="D174" s="91"/>
-      <c r="E174" s="91"/>
-      <c r="F174" s="91"/>
-      <c r="G174" s="91"/>
-      <c r="H174" s="91"/>
-      <c r="I174" s="92"/>
-    </row>
-    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B174" s="88"/>
+      <c r="C174" s="88"/>
+      <c r="D174" s="88"/>
+      <c r="E174" s="88"/>
+      <c r="F174" s="88"/>
+      <c r="G174" s="88"/>
+      <c r="H174" s="88"/>
+      <c r="I174" s="89"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="37" t="s">
         <v>23</v>
       </c>
@@ -22794,7 +22836,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="39" t="s">
         <v>111</v>
       </c>
@@ -22821,7 +22863,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="37" t="s">
         <v>211</v>
       </c>
@@ -22848,7 +22890,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="39" t="s">
         <v>212</v>
       </c>
@@ -22875,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="37" t="s">
         <v>213</v>
       </c>
@@ -22902,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="39" t="s">
         <v>214</v>
       </c>
@@ -22929,7 +22971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="37" t="s">
         <v>22</v>
       </c>
@@ -22956,7 +22998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="39" t="s">
         <v>215</v>
       </c>
@@ -22983,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="37" t="s">
         <v>216</v>
       </c>
@@ -23010,7 +23052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="41" t="s">
         <v>217</v>
       </c>
@@ -23037,46 +23079,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A186" s="85" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B186" s="86"/>
-      <c r="C186" s="86"/>
-      <c r="D186" s="86"/>
-      <c r="E186" s="86"/>
-      <c r="F186" s="86"/>
-      <c r="G186" s="86"/>
-      <c r="H186" s="86"/>
-      <c r="I186" s="86"/>
-    </row>
-    <row r="187" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="87" t="s">
+      <c r="B186" s="94"/>
+      <c r="C186" s="94"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="94"/>
+      <c r="F186" s="94"/>
+      <c r="G186" s="94"/>
+      <c r="H186" s="94"/>
+      <c r="I186" s="94"/>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B187" s="86"/>
-      <c r="C187" s="86"/>
-      <c r="D187" s="86"/>
-      <c r="E187" s="86"/>
-      <c r="F187" s="86"/>
-      <c r="G187" s="86"/>
-      <c r="H187" s="86"/>
-      <c r="I187" s="86"/>
-    </row>
-    <row r="188" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="88" t="s">
+      <c r="B187" s="94"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="94"/>
+    </row>
+    <row r="188" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="B188" s="89"/>
-      <c r="C188" s="89"/>
-      <c r="D188" s="89"/>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
-      <c r="H188" s="89"/>
-      <c r="I188" s="89"/>
-    </row>
-    <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B188" s="86"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="86"/>
+      <c r="E188" s="86"/>
+      <c r="F188" s="86"/>
+      <c r="G188" s="86"/>
+      <c r="H188" s="86"/>
+      <c r="I188" s="86"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="32"/>
       <c r="B189" s="33">
         <v>1990</v>
@@ -23101,7 +23143,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="34" t="s">
         <v>244</v>
       </c>
@@ -23128,20 +23170,20 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="90" t="s">
+    <row r="191" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B191" s="91"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="91"/>
-      <c r="F191" s="91"/>
-      <c r="G191" s="91"/>
-      <c r="H191" s="91"/>
-      <c r="I191" s="92"/>
-    </row>
-    <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B191" s="88"/>
+      <c r="C191" s="88"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="89"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="37" t="s">
         <v>23</v>
       </c>
@@ -23168,7 +23210,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="39" t="s">
         <v>111</v>
       </c>
@@ -23195,7 +23237,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="37" t="s">
         <v>211</v>
       </c>
@@ -23222,7 +23264,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="39" t="s">
         <v>212</v>
       </c>
@@ -23249,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="37" t="s">
         <v>213</v>
       </c>
@@ -23276,7 +23318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
         <v>214</v>
       </c>
@@ -23303,7 +23345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="37" t="s">
         <v>22</v>
       </c>
@@ -23330,7 +23372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="39" t="s">
         <v>215</v>
       </c>
@@ -23357,7 +23399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="37" t="s">
         <v>216</v>
       </c>
@@ -23384,7 +23426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="43" t="s">
         <v>217</v>
       </c>
@@ -23411,37 +23453,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203" s="85" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B203" s="86"/>
-      <c r="C203" s="86"/>
-      <c r="D203" s="86"/>
-      <c r="E203" s="86"/>
-      <c r="F203" s="86"/>
-    </row>
-    <row r="204" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="87" t="s">
+      <c r="B203" s="94"/>
+      <c r="C203" s="94"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="94"/>
+      <c r="F203" s="94"/>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B204" s="86"/>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86"/>
-    </row>
-    <row r="205" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="88" t="s">
+      <c r="B204" s="94"/>
+      <c r="C204" s="94"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="94"/>
+      <c r="F204" s="94"/>
+    </row>
+    <row r="205" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="B205" s="89"/>
-      <c r="C205" s="89"/>
-      <c r="D205" s="89"/>
-      <c r="E205" s="89"/>
-      <c r="F205" s="89"/>
-    </row>
-    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B205" s="86"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="86"/>
+      <c r="E205" s="86"/>
+      <c r="F205" s="86"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="32"/>
       <c r="B206" s="33">
         <v>1990</v>
@@ -23457,7 +23499,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="34" t="s">
         <v>246</v>
       </c>
@@ -23475,17 +23517,17 @@
         <v>1190.9000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="90" t="s">
+    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="91"/>
-      <c r="C208" s="91"/>
-      <c r="D208" s="91"/>
-      <c r="E208" s="91"/>
-      <c r="F208" s="92"/>
-    </row>
-    <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B208" s="88"/>
+      <c r="C208" s="88"/>
+      <c r="D208" s="88"/>
+      <c r="E208" s="88"/>
+      <c r="F208" s="89"/>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="37" t="s">
         <v>23</v>
       </c>
@@ -23503,7 +23545,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="39" t="s">
         <v>111</v>
       </c>
@@ -23521,7 +23563,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="37" t="s">
         <v>211</v>
       </c>
@@ -23539,7 +23581,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="39" t="s">
         <v>212</v>
       </c>
@@ -23557,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="37" t="s">
         <v>213</v>
       </c>
@@ -23575,7 +23617,7 @@
         <v>231.5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="39" t="s">
         <v>214</v>
       </c>
@@ -23593,7 +23635,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="37" t="s">
         <v>22</v>
       </c>
@@ -23611,7 +23653,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="39" t="s">
         <v>215</v>
       </c>
@@ -23629,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="37" t="s">
         <v>216</v>
       </c>
@@ -23647,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="43" t="s">
         <v>217</v>
       </c>
@@ -23665,43 +23707,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="85" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="86"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="86"/>
-      <c r="F220" s="86"/>
-      <c r="G220" s="86"/>
-      <c r="H220" s="86"/>
-    </row>
-    <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="87" t="s">
+      <c r="B220" s="94"/>
+      <c r="C220" s="94"/>
+      <c r="D220" s="94"/>
+      <c r="E220" s="94"/>
+      <c r="F220" s="94"/>
+      <c r="G220" s="94"/>
+      <c r="H220" s="94"/>
+    </row>
+    <row r="221" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B221" s="86"/>
-      <c r="C221" s="86"/>
-      <c r="D221" s="86"/>
-      <c r="E221" s="86"/>
-      <c r="F221" s="86"/>
-      <c r="G221" s="86"/>
-      <c r="H221" s="86"/>
-    </row>
-    <row r="222" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="88" t="s">
+      <c r="B221" s="94"/>
+      <c r="C221" s="94"/>
+      <c r="D221" s="94"/>
+      <c r="E221" s="94"/>
+      <c r="F221" s="94"/>
+      <c r="G221" s="94"/>
+      <c r="H221" s="94"/>
+    </row>
+    <row r="222" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="B222" s="89"/>
-      <c r="C222" s="89"/>
-      <c r="D222" s="89"/>
-      <c r="E222" s="89"/>
-      <c r="F222" s="89"/>
-      <c r="G222" s="89"/>
-      <c r="H222" s="89"/>
-    </row>
-    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B222" s="86"/>
+      <c r="C222" s="86"/>
+      <c r="D222" s="86"/>
+      <c r="E222" s="86"/>
+      <c r="F222" s="86"/>
+      <c r="G222" s="86"/>
+      <c r="H222" s="86"/>
+    </row>
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="32"/>
       <c r="B223" s="33">
         <v>1990</v>
@@ -23723,7 +23765,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="34" t="s">
         <v>258</v>
       </c>
@@ -23747,19 +23789,19 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="90" t="s">
+    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="91"/>
-      <c r="C225" s="91"/>
-      <c r="D225" s="91"/>
-      <c r="E225" s="91"/>
-      <c r="F225" s="91"/>
-      <c r="G225" s="91"/>
-      <c r="H225" s="92"/>
-    </row>
-    <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B225" s="88"/>
+      <c r="C225" s="88"/>
+      <c r="D225" s="88"/>
+      <c r="E225" s="88"/>
+      <c r="F225" s="88"/>
+      <c r="G225" s="88"/>
+      <c r="H225" s="89"/>
+    </row>
+    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="37" t="s">
         <v>23</v>
       </c>
@@ -23783,7 +23825,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="39" t="s">
         <v>111</v>
       </c>
@@ -23807,7 +23849,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="37" t="s">
         <v>211</v>
       </c>
@@ -23831,7 +23873,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="39" t="s">
         <v>212</v>
       </c>
@@ -23855,7 +23897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="37" t="s">
         <v>213</v>
       </c>
@@ -23879,7 +23921,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="39" t="s">
         <v>214</v>
       </c>
@@ -23903,7 +23945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="37" t="s">
         <v>22</v>
       </c>
@@ -23927,7 +23969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="39" t="s">
         <v>215</v>
       </c>
@@ -23951,7 +23993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="37" t="s">
         <v>216</v>
       </c>
@@ -23975,7 +24017,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="41" t="s">
         <v>217</v>
       </c>
@@ -23999,46 +24041,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A237" s="85" t="s">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B237" s="86"/>
-      <c r="C237" s="86"/>
-      <c r="D237" s="86"/>
-      <c r="E237" s="86"/>
-      <c r="F237" s="86"/>
-      <c r="G237" s="86"/>
-      <c r="H237" s="86"/>
-      <c r="I237" s="86"/>
-    </row>
-    <row r="238" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="87" t="s">
+      <c r="B237" s="94"/>
+      <c r="C237" s="94"/>
+      <c r="D237" s="94"/>
+      <c r="E237" s="94"/>
+      <c r="F237" s="94"/>
+      <c r="G237" s="94"/>
+      <c r="H237" s="94"/>
+      <c r="I237" s="94"/>
+    </row>
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B238" s="86"/>
-      <c r="C238" s="86"/>
-      <c r="D238" s="86"/>
-      <c r="E238" s="86"/>
-      <c r="F238" s="86"/>
-      <c r="G238" s="86"/>
-      <c r="H238" s="86"/>
-      <c r="I238" s="86"/>
-    </row>
-    <row r="239" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="88" t="s">
+      <c r="B238" s="94"/>
+      <c r="C238" s="94"/>
+      <c r="D238" s="94"/>
+      <c r="E238" s="94"/>
+      <c r="F238" s="94"/>
+      <c r="G238" s="94"/>
+      <c r="H238" s="94"/>
+      <c r="I238" s="94"/>
+    </row>
+    <row r="239" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="B239" s="89"/>
-      <c r="C239" s="89"/>
-      <c r="D239" s="89"/>
-      <c r="E239" s="89"/>
-      <c r="F239" s="89"/>
-      <c r="G239" s="89"/>
-      <c r="H239" s="89"/>
-      <c r="I239" s="89"/>
-    </row>
-    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B239" s="86"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="86"/>
+      <c r="E239" s="86"/>
+      <c r="F239" s="86"/>
+      <c r="G239" s="86"/>
+      <c r="H239" s="86"/>
+      <c r="I239" s="86"/>
+    </row>
+    <row r="240" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="32"/>
       <c r="B240" s="33">
         <v>1990</v>
@@ -24063,7 +24105,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="34" t="s">
         <v>297</v>
       </c>
@@ -24090,20 +24132,20 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="90" t="s">
+    <row r="242" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B242" s="91"/>
-      <c r="C242" s="91"/>
-      <c r="D242" s="91"/>
-      <c r="E242" s="91"/>
-      <c r="F242" s="91"/>
-      <c r="G242" s="91"/>
-      <c r="H242" s="91"/>
-      <c r="I242" s="92"/>
-    </row>
-    <row r="243" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B242" s="88"/>
+      <c r="C242" s="88"/>
+      <c r="D242" s="88"/>
+      <c r="E242" s="88"/>
+      <c r="F242" s="88"/>
+      <c r="G242" s="88"/>
+      <c r="H242" s="88"/>
+      <c r="I242" s="89"/>
+    </row>
+    <row r="243" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="37" t="s">
         <v>23</v>
       </c>
@@ -24130,7 +24172,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="39" t="s">
         <v>111</v>
       </c>
@@ -24157,7 +24199,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="37" t="s">
         <v>211</v>
       </c>
@@ -24184,7 +24226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="39" t="s">
         <v>212</v>
       </c>
@@ -24211,7 +24253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="37" t="s">
         <v>213</v>
       </c>
@@ -24238,7 +24280,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
         <v>214</v>
       </c>
@@ -24265,7 +24307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="37" t="s">
         <v>22</v>
       </c>
@@ -24292,7 +24334,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
         <v>215</v>
       </c>
@@ -24319,7 +24361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="37" t="s">
         <v>216</v>
       </c>
@@ -24346,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="41" t="s">
         <v>217</v>
       </c>
@@ -24373,46 +24415,46 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A254" s="85" t="s">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B254" s="86"/>
-      <c r="C254" s="86"/>
-      <c r="D254" s="86"/>
-      <c r="E254" s="86"/>
-      <c r="F254" s="86"/>
-      <c r="G254" s="86"/>
-      <c r="H254" s="86"/>
-      <c r="I254" s="86"/>
-    </row>
-    <row r="255" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A255" s="87" t="s">
+      <c r="B254" s="94"/>
+      <c r="C254" s="94"/>
+      <c r="D254" s="94"/>
+      <c r="E254" s="94"/>
+      <c r="F254" s="94"/>
+      <c r="G254" s="94"/>
+      <c r="H254" s="94"/>
+      <c r="I254" s="94"/>
+    </row>
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B255" s="86"/>
-      <c r="C255" s="86"/>
-      <c r="D255" s="86"/>
-      <c r="E255" s="86"/>
-      <c r="F255" s="86"/>
-      <c r="G255" s="86"/>
-      <c r="H255" s="86"/>
-      <c r="I255" s="86"/>
-    </row>
-    <row r="256" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="88" t="s">
+      <c r="B255" s="94"/>
+      <c r="C255" s="94"/>
+      <c r="D255" s="94"/>
+      <c r="E255" s="94"/>
+      <c r="F255" s="94"/>
+      <c r="G255" s="94"/>
+      <c r="H255" s="94"/>
+      <c r="I255" s="94"/>
+    </row>
+    <row r="256" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="B256" s="89"/>
-      <c r="C256" s="89"/>
-      <c r="D256" s="89"/>
-      <c r="E256" s="89"/>
-      <c r="F256" s="89"/>
-      <c r="G256" s="89"/>
-      <c r="H256" s="89"/>
-      <c r="I256" s="89"/>
-    </row>
-    <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B256" s="86"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="86"/>
+      <c r="E256" s="86"/>
+      <c r="F256" s="86"/>
+      <c r="G256" s="86"/>
+      <c r="H256" s="86"/>
+      <c r="I256" s="86"/>
+    </row>
+    <row r="257" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32"/>
       <c r="B257" s="33">
         <v>1990</v>
@@ -24437,7 +24479,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="34" t="s">
         <v>299</v>
       </c>
@@ -24464,20 +24506,20 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="90" t="s">
+    <row r="259" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B259" s="91"/>
-      <c r="C259" s="91"/>
-      <c r="D259" s="91"/>
-      <c r="E259" s="91"/>
-      <c r="F259" s="91"/>
-      <c r="G259" s="91"/>
-      <c r="H259" s="91"/>
-      <c r="I259" s="92"/>
-    </row>
-    <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B259" s="88"/>
+      <c r="C259" s="88"/>
+      <c r="D259" s="88"/>
+      <c r="E259" s="88"/>
+      <c r="F259" s="88"/>
+      <c r="G259" s="88"/>
+      <c r="H259" s="88"/>
+      <c r="I259" s="89"/>
+    </row>
+    <row r="260" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="37" t="s">
         <v>23</v>
       </c>
@@ -24504,7 +24546,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="39" t="s">
         <v>111</v>
       </c>
@@ -24531,7 +24573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="37" t="s">
         <v>211</v>
       </c>
@@ -24558,7 +24600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="39" t="s">
         <v>212</v>
       </c>
@@ -24585,7 +24627,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="37" t="s">
         <v>213</v>
       </c>
@@ -24612,7 +24654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="39" t="s">
         <v>214</v>
       </c>
@@ -24639,7 +24681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="37" t="s">
         <v>22</v>
       </c>
@@ -24666,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="39" t="s">
         <v>215</v>
       </c>
@@ -24693,7 +24735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="37" t="s">
         <v>216</v>
       </c>
@@ -24720,7 +24762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="41" t="s">
         <v>217</v>
       </c>
@@ -24747,46 +24789,46 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A271" s="85" t="s">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B271" s="86"/>
-      <c r="C271" s="86"/>
-      <c r="D271" s="86"/>
-      <c r="E271" s="86"/>
-      <c r="F271" s="86"/>
-      <c r="G271" s="86"/>
-      <c r="H271" s="86"/>
-      <c r="I271" s="86"/>
-    </row>
-    <row r="272" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A272" s="87" t="s">
+      <c r="B271" s="94"/>
+      <c r="C271" s="94"/>
+      <c r="D271" s="94"/>
+      <c r="E271" s="94"/>
+      <c r="F271" s="94"/>
+      <c r="G271" s="94"/>
+      <c r="H271" s="94"/>
+      <c r="I271" s="94"/>
+    </row>
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B272" s="86"/>
-      <c r="C272" s="86"/>
-      <c r="D272" s="86"/>
-      <c r="E272" s="86"/>
-      <c r="F272" s="86"/>
-      <c r="G272" s="86"/>
-      <c r="H272" s="86"/>
-      <c r="I272" s="86"/>
-    </row>
-    <row r="273" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="88" t="s">
+      <c r="B272" s="94"/>
+      <c r="C272" s="94"/>
+      <c r="D272" s="94"/>
+      <c r="E272" s="94"/>
+      <c r="F272" s="94"/>
+      <c r="G272" s="94"/>
+      <c r="H272" s="94"/>
+      <c r="I272" s="94"/>
+    </row>
+    <row r="273" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="B273" s="89"/>
-      <c r="C273" s="89"/>
-      <c r="D273" s="89"/>
-      <c r="E273" s="89"/>
-      <c r="F273" s="89"/>
-      <c r="G273" s="89"/>
-      <c r="H273" s="89"/>
-      <c r="I273" s="89"/>
-    </row>
-    <row r="274" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B273" s="86"/>
+      <c r="C273" s="86"/>
+      <c r="D273" s="86"/>
+      <c r="E273" s="86"/>
+      <c r="F273" s="86"/>
+      <c r="G273" s="86"/>
+      <c r="H273" s="86"/>
+      <c r="I273" s="86"/>
+    </row>
+    <row r="274" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="32"/>
       <c r="B274" s="33">
         <v>1990</v>
@@ -24811,7 +24853,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="34" t="s">
         <v>301</v>
       </c>
@@ -24838,20 +24880,20 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="90" t="s">
+    <row r="276" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B276" s="91"/>
-      <c r="C276" s="91"/>
-      <c r="D276" s="91"/>
-      <c r="E276" s="91"/>
-      <c r="F276" s="91"/>
-      <c r="G276" s="91"/>
-      <c r="H276" s="91"/>
-      <c r="I276" s="92"/>
-    </row>
-    <row r="277" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B276" s="88"/>
+      <c r="C276" s="88"/>
+      <c r="D276" s="88"/>
+      <c r="E276" s="88"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="88"/>
+      <c r="H276" s="88"/>
+      <c r="I276" s="89"/>
+    </row>
+    <row r="277" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="37" t="s">
         <v>23</v>
       </c>
@@ -24878,7 +24920,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="39" t="s">
         <v>111</v>
       </c>
@@ -24905,7 +24947,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="37" t="s">
         <v>211</v>
       </c>
@@ -24932,7 +24974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="39" t="s">
         <v>212</v>
       </c>
@@ -24959,7 +25001,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="37" t="s">
         <v>213</v>
       </c>
@@ -24986,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="39" t="s">
         <v>214</v>
       </c>
@@ -25013,7 +25055,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="37" t="s">
         <v>22</v>
       </c>
@@ -25040,7 +25082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="39" t="s">
         <v>215</v>
       </c>
@@ -25067,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="37" t="s">
         <v>216</v>
       </c>
@@ -25094,7 +25136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="41" t="s">
         <v>217</v>
       </c>
@@ -25121,46 +25163,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A288" s="85" t="s">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B288" s="86"/>
-      <c r="C288" s="86"/>
-      <c r="D288" s="86"/>
-      <c r="E288" s="86"/>
-      <c r="F288" s="86"/>
-      <c r="G288" s="86"/>
-      <c r="H288" s="86"/>
-      <c r="I288" s="86"/>
-    </row>
-    <row r="289" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="87" t="s">
+      <c r="B288" s="94"/>
+      <c r="C288" s="94"/>
+      <c r="D288" s="94"/>
+      <c r="E288" s="94"/>
+      <c r="F288" s="94"/>
+      <c r="G288" s="94"/>
+      <c r="H288" s="94"/>
+      <c r="I288" s="94"/>
+    </row>
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B289" s="86"/>
-      <c r="C289" s="86"/>
-      <c r="D289" s="86"/>
-      <c r="E289" s="86"/>
-      <c r="F289" s="86"/>
-      <c r="G289" s="86"/>
-      <c r="H289" s="86"/>
-      <c r="I289" s="86"/>
-    </row>
-    <row r="290" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="88" t="s">
+      <c r="B289" s="94"/>
+      <c r="C289" s="94"/>
+      <c r="D289" s="94"/>
+      <c r="E289" s="94"/>
+      <c r="F289" s="94"/>
+      <c r="G289" s="94"/>
+      <c r="H289" s="94"/>
+      <c r="I289" s="94"/>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="B290" s="89"/>
-      <c r="C290" s="89"/>
-      <c r="D290" s="89"/>
-      <c r="E290" s="89"/>
-      <c r="F290" s="89"/>
-      <c r="G290" s="89"/>
-      <c r="H290" s="89"/>
-      <c r="I290" s="89"/>
-    </row>
-    <row r="291" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B290" s="86"/>
+      <c r="C290" s="86"/>
+      <c r="D290" s="86"/>
+      <c r="E290" s="86"/>
+      <c r="F290" s="86"/>
+      <c r="G290" s="86"/>
+      <c r="H290" s="86"/>
+      <c r="I290" s="86"/>
+    </row>
+    <row r="291" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="32"/>
       <c r="B291" s="33">
         <v>1990</v>
@@ -25185,7 +25227,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="34" t="s">
         <v>303</v>
       </c>
@@ -25212,20 +25254,20 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="90" t="s">
+    <row r="293" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B293" s="91"/>
-      <c r="C293" s="91"/>
-      <c r="D293" s="91"/>
-      <c r="E293" s="91"/>
-      <c r="F293" s="91"/>
-      <c r="G293" s="91"/>
-      <c r="H293" s="91"/>
-      <c r="I293" s="92"/>
-    </row>
-    <row r="294" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B293" s="88"/>
+      <c r="C293" s="88"/>
+      <c r="D293" s="88"/>
+      <c r="E293" s="88"/>
+      <c r="F293" s="88"/>
+      <c r="G293" s="88"/>
+      <c r="H293" s="88"/>
+      <c r="I293" s="89"/>
+    </row>
+    <row r="294" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="37" t="s">
         <v>23</v>
       </c>
@@ -25252,7 +25294,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="39" t="s">
         <v>111</v>
       </c>
@@ -25279,7 +25321,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="37" t="s">
         <v>211</v>
       </c>
@@ -25306,7 +25348,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="39" t="s">
         <v>212</v>
       </c>
@@ -25333,7 +25375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="37" t="s">
         <v>213</v>
       </c>
@@ -25360,7 +25402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="39" t="s">
         <v>214</v>
       </c>
@@ -25387,7 +25429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="37" t="s">
         <v>22</v>
       </c>
@@ -25414,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="39" t="s">
         <v>215</v>
       </c>
@@ -25441,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="37" t="s">
         <v>216</v>
       </c>
@@ -25468,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="43" t="s">
         <v>217</v>
       </c>
@@ -25495,46 +25537,46 @@
         <v>210</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A305" s="85" t="s">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B305" s="86"/>
-      <c r="C305" s="86"/>
-      <c r="D305" s="86"/>
-      <c r="E305" s="86"/>
-      <c r="F305" s="86"/>
-      <c r="G305" s="86"/>
-      <c r="H305" s="86"/>
-      <c r="I305" s="86"/>
-    </row>
-    <row r="306" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="87" t="s">
+      <c r="B305" s="94"/>
+      <c r="C305" s="94"/>
+      <c r="D305" s="94"/>
+      <c r="E305" s="94"/>
+      <c r="F305" s="94"/>
+      <c r="G305" s="94"/>
+      <c r="H305" s="94"/>
+      <c r="I305" s="94"/>
+    </row>
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B306" s="86"/>
-      <c r="C306" s="86"/>
-      <c r="D306" s="86"/>
-      <c r="E306" s="86"/>
-      <c r="F306" s="86"/>
-      <c r="G306" s="86"/>
-      <c r="H306" s="86"/>
-      <c r="I306" s="86"/>
-    </row>
-    <row r="307" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="88" t="s">
+      <c r="B306" s="94"/>
+      <c r="C306" s="94"/>
+      <c r="D306" s="94"/>
+      <c r="E306" s="94"/>
+      <c r="F306" s="94"/>
+      <c r="G306" s="94"/>
+      <c r="H306" s="94"/>
+      <c r="I306" s="94"/>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="B307" s="89"/>
-      <c r="C307" s="89"/>
-      <c r="D307" s="89"/>
-      <c r="E307" s="89"/>
-      <c r="F307" s="89"/>
-      <c r="G307" s="89"/>
-      <c r="H307" s="89"/>
-      <c r="I307" s="89"/>
-    </row>
-    <row r="308" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B307" s="86"/>
+      <c r="C307" s="86"/>
+      <c r="D307" s="86"/>
+      <c r="E307" s="86"/>
+      <c r="F307" s="86"/>
+      <c r="G307" s="86"/>
+      <c r="H307" s="86"/>
+      <c r="I307" s="86"/>
+    </row>
+    <row r="308" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="32"/>
       <c r="B308" s="33">
         <v>1990</v>
@@ -25559,7 +25601,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="34" t="s">
         <v>305</v>
       </c>
@@ -25586,20 +25628,20 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="90" t="s">
+    <row r="310" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B310" s="91"/>
-      <c r="C310" s="91"/>
-      <c r="D310" s="91"/>
-      <c r="E310" s="91"/>
-      <c r="F310" s="91"/>
-      <c r="G310" s="91"/>
-      <c r="H310" s="91"/>
-      <c r="I310" s="92"/>
-    </row>
-    <row r="311" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B310" s="88"/>
+      <c r="C310" s="88"/>
+      <c r="D310" s="88"/>
+      <c r="E310" s="88"/>
+      <c r="F310" s="88"/>
+      <c r="G310" s="88"/>
+      <c r="H310" s="88"/>
+      <c r="I310" s="89"/>
+    </row>
+    <row r="311" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="37" t="s">
         <v>23</v>
       </c>
@@ -25626,7 +25668,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="39" t="s">
         <v>111</v>
       </c>
@@ -25653,7 +25695,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="37" t="s">
         <v>211</v>
       </c>
@@ -25680,7 +25722,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="39" t="s">
         <v>212</v>
       </c>
@@ -25707,7 +25749,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="37" t="s">
         <v>213</v>
       </c>
@@ -25734,7 +25776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="39" t="s">
         <v>214</v>
       </c>
@@ -25761,7 +25803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="37" t="s">
         <v>22</v>
       </c>
@@ -25788,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="39" t="s">
         <v>215</v>
       </c>
@@ -25815,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="37" t="s">
         <v>216</v>
       </c>
@@ -25842,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="41" t="s">
         <v>217</v>
       </c>
@@ -25869,46 +25911,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A322" s="85" t="s">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B322" s="86"/>
-      <c r="C322" s="86"/>
-      <c r="D322" s="86"/>
-      <c r="E322" s="86"/>
-      <c r="F322" s="86"/>
-      <c r="G322" s="86"/>
-      <c r="H322" s="86"/>
-      <c r="I322" s="86"/>
-    </row>
-    <row r="323" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A323" s="87" t="s">
+      <c r="B322" s="94"/>
+      <c r="C322" s="94"/>
+      <c r="D322" s="94"/>
+      <c r="E322" s="94"/>
+      <c r="F322" s="94"/>
+      <c r="G322" s="94"/>
+      <c r="H322" s="94"/>
+      <c r="I322" s="94"/>
+    </row>
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B323" s="86"/>
-      <c r="C323" s="86"/>
-      <c r="D323" s="86"/>
-      <c r="E323" s="86"/>
-      <c r="F323" s="86"/>
-      <c r="G323" s="86"/>
-      <c r="H323" s="86"/>
-      <c r="I323" s="86"/>
-    </row>
-    <row r="324" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="88" t="s">
+      <c r="B323" s="94"/>
+      <c r="C323" s="94"/>
+      <c r="D323" s="94"/>
+      <c r="E323" s="94"/>
+      <c r="F323" s="94"/>
+      <c r="G323" s="94"/>
+      <c r="H323" s="94"/>
+      <c r="I323" s="94"/>
+    </row>
+    <row r="324" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="B324" s="89"/>
-      <c r="C324" s="89"/>
-      <c r="D324" s="89"/>
-      <c r="E324" s="89"/>
-      <c r="F324" s="89"/>
-      <c r="G324" s="89"/>
-      <c r="H324" s="89"/>
-      <c r="I324" s="89"/>
-    </row>
-    <row r="325" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B324" s="86"/>
+      <c r="C324" s="86"/>
+      <c r="D324" s="86"/>
+      <c r="E324" s="86"/>
+      <c r="F324" s="86"/>
+      <c r="G324" s="86"/>
+      <c r="H324" s="86"/>
+      <c r="I324" s="86"/>
+    </row>
+    <row r="325" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="32"/>
       <c r="B325" s="33">
         <v>1990</v>
@@ -25933,7 +25975,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="34" t="s">
         <v>307</v>
       </c>
@@ -25960,20 +26002,20 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="90" t="s">
+    <row r="327" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B327" s="91"/>
-      <c r="C327" s="91"/>
-      <c r="D327" s="91"/>
-      <c r="E327" s="91"/>
-      <c r="F327" s="91"/>
-      <c r="G327" s="91"/>
-      <c r="H327" s="91"/>
-      <c r="I327" s="92"/>
-    </row>
-    <row r="328" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B327" s="88"/>
+      <c r="C327" s="88"/>
+      <c r="D327" s="88"/>
+      <c r="E327" s="88"/>
+      <c r="F327" s="88"/>
+      <c r="G327" s="88"/>
+      <c r="H327" s="88"/>
+      <c r="I327" s="89"/>
+    </row>
+    <row r="328" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="37" t="s">
         <v>23</v>
       </c>
@@ -26000,7 +26042,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="39" t="s">
         <v>111</v>
       </c>
@@ -26027,7 +26069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="37" t="s">
         <v>211</v>
       </c>
@@ -26054,7 +26096,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="39" t="s">
         <v>212</v>
       </c>
@@ -26081,7 +26123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="37" t="s">
         <v>213</v>
       </c>
@@ -26108,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="39" t="s">
         <v>214</v>
       </c>
@@ -26135,7 +26177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="37" t="s">
         <v>22</v>
       </c>
@@ -26162,7 +26204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="39" t="s">
         <v>215</v>
       </c>
@@ -26189,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="37" t="s">
         <v>216</v>
       </c>
@@ -26216,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="41" t="s">
         <v>217</v>
       </c>
@@ -26243,46 +26285,46 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A339" s="85" t="s">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B339" s="86"/>
-      <c r="C339" s="86"/>
-      <c r="D339" s="86"/>
-      <c r="E339" s="86"/>
-      <c r="F339" s="86"/>
-      <c r="G339" s="86"/>
-      <c r="H339" s="86"/>
-      <c r="I339" s="86"/>
-    </row>
-    <row r="340" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A340" s="87" t="s">
+      <c r="B339" s="94"/>
+      <c r="C339" s="94"/>
+      <c r="D339" s="94"/>
+      <c r="E339" s="94"/>
+      <c r="F339" s="94"/>
+      <c r="G339" s="94"/>
+      <c r="H339" s="94"/>
+      <c r="I339" s="94"/>
+    </row>
+    <row r="340" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B340" s="86"/>
-      <c r="C340" s="86"/>
-      <c r="D340" s="86"/>
-      <c r="E340" s="86"/>
-      <c r="F340" s="86"/>
-      <c r="G340" s="86"/>
-      <c r="H340" s="86"/>
-      <c r="I340" s="86"/>
-    </row>
-    <row r="341" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="88" t="s">
+      <c r="B340" s="94"/>
+      <c r="C340" s="94"/>
+      <c r="D340" s="94"/>
+      <c r="E340" s="94"/>
+      <c r="F340" s="94"/>
+      <c r="G340" s="94"/>
+      <c r="H340" s="94"/>
+      <c r="I340" s="94"/>
+    </row>
+    <row r="341" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="B341" s="89"/>
-      <c r="C341" s="89"/>
-      <c r="D341" s="89"/>
-      <c r="E341" s="89"/>
-      <c r="F341" s="89"/>
-      <c r="G341" s="89"/>
-      <c r="H341" s="89"/>
-      <c r="I341" s="89"/>
-    </row>
-    <row r="342" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B341" s="86"/>
+      <c r="C341" s="86"/>
+      <c r="D341" s="86"/>
+      <c r="E341" s="86"/>
+      <c r="F341" s="86"/>
+      <c r="G341" s="86"/>
+      <c r="H341" s="86"/>
+      <c r="I341" s="86"/>
+    </row>
+    <row r="342" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="32"/>
       <c r="B342" s="33">
         <v>1990</v>
@@ -26307,7 +26349,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="34" t="s">
         <v>309</v>
       </c>
@@ -26334,20 +26376,20 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="90" t="s">
+    <row r="344" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B344" s="91"/>
-      <c r="C344" s="91"/>
-      <c r="D344" s="91"/>
-      <c r="E344" s="91"/>
-      <c r="F344" s="91"/>
-      <c r="G344" s="91"/>
-      <c r="H344" s="91"/>
-      <c r="I344" s="92"/>
-    </row>
-    <row r="345" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B344" s="88"/>
+      <c r="C344" s="88"/>
+      <c r="D344" s="88"/>
+      <c r="E344" s="88"/>
+      <c r="F344" s="88"/>
+      <c r="G344" s="88"/>
+      <c r="H344" s="88"/>
+      <c r="I344" s="89"/>
+    </row>
+    <row r="345" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37" t="s">
         <v>23</v>
       </c>
@@ -26374,7 +26416,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="39" t="s">
         <v>111</v>
       </c>
@@ -26401,7 +26443,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="37" t="s">
         <v>211</v>
       </c>
@@ -26428,7 +26470,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="39" t="s">
         <v>212</v>
       </c>
@@ -26455,7 +26497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="37" t="s">
         <v>213</v>
       </c>
@@ -26482,7 +26524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="39" t="s">
         <v>214</v>
       </c>
@@ -26509,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="37" t="s">
         <v>22</v>
       </c>
@@ -26536,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="39" t="s">
         <v>215</v>
       </c>
@@ -26563,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37" t="s">
         <v>216</v>
       </c>
@@ -26590,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="43" t="s">
         <v>217</v>
       </c>
@@ -26617,43 +26659,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A356" s="85" t="s">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="B356" s="86"/>
-      <c r="C356" s="86"/>
-      <c r="D356" s="86"/>
-      <c r="E356" s="86"/>
-      <c r="F356" s="86"/>
-      <c r="G356" s="86"/>
-      <c r="H356" s="86"/>
-    </row>
-    <row r="357" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A357" s="87" t="s">
+      <c r="B356" s="94"/>
+      <c r="C356" s="94"/>
+      <c r="D356" s="94"/>
+      <c r="E356" s="94"/>
+      <c r="F356" s="94"/>
+      <c r="G356" s="94"/>
+      <c r="H356" s="94"/>
+    </row>
+    <row r="357" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A357" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B357" s="86"/>
-      <c r="C357" s="86"/>
-      <c r="D357" s="86"/>
-      <c r="E357" s="86"/>
-      <c r="F357" s="86"/>
-      <c r="G357" s="86"/>
-      <c r="H357" s="86"/>
-    </row>
-    <row r="358" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A358" s="88" t="s">
+      <c r="B357" s="94"/>
+      <c r="C357" s="94"/>
+      <c r="D357" s="94"/>
+      <c r="E357" s="94"/>
+      <c r="F357" s="94"/>
+      <c r="G357" s="94"/>
+      <c r="H357" s="94"/>
+    </row>
+    <row r="358" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="B358" s="89"/>
-      <c r="C358" s="89"/>
-      <c r="D358" s="89"/>
-      <c r="E358" s="89"/>
-      <c r="F358" s="89"/>
-      <c r="G358" s="89"/>
-      <c r="H358" s="89"/>
-    </row>
-    <row r="359" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B358" s="86"/>
+      <c r="C358" s="86"/>
+      <c r="D358" s="86"/>
+      <c r="E358" s="86"/>
+      <c r="F358" s="86"/>
+      <c r="G358" s="86"/>
+      <c r="H358" s="86"/>
+    </row>
+    <row r="359" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="32"/>
       <c r="B359" s="33">
         <v>1990</v>
@@ -26675,7 +26717,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="34" t="s">
         <v>258</v>
       </c>
@@ -26699,19 +26741,19 @@
         <v>281.60000000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A361" s="90" t="s">
+    <row r="361" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="87" t="s">
         <v>312</v>
       </c>
-      <c r="B361" s="91"/>
-      <c r="C361" s="91"/>
-      <c r="D361" s="91"/>
-      <c r="E361" s="91"/>
-      <c r="F361" s="91"/>
-      <c r="G361" s="91"/>
-      <c r="H361" s="92"/>
-    </row>
-    <row r="362" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B361" s="88"/>
+      <c r="C361" s="88"/>
+      <c r="D361" s="88"/>
+      <c r="E361" s="88"/>
+      <c r="F361" s="88"/>
+      <c r="G361" s="88"/>
+      <c r="H361" s="89"/>
+    </row>
+    <row r="362" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="37" t="s">
         <v>313</v>
       </c>
@@ -26735,7 +26777,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="43" t="s">
         <v>314</v>
       </c>
@@ -26759,19 +26801,19 @@
         <v>182.7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A364" s="94" t="s">
+    <row r="364" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="B364" s="95"/>
-      <c r="C364" s="95"/>
-      <c r="D364" s="95"/>
-      <c r="E364" s="95"/>
-      <c r="F364" s="95"/>
-      <c r="G364" s="95"/>
-      <c r="H364" s="96"/>
-    </row>
-    <row r="365" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B364" s="91"/>
+      <c r="C364" s="91"/>
+      <c r="D364" s="91"/>
+      <c r="E364" s="91"/>
+      <c r="F364" s="91"/>
+      <c r="G364" s="91"/>
+      <c r="H364" s="92"/>
+    </row>
+    <row r="365" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="39" t="s">
         <v>23</v>
       </c>
@@ -26795,7 +26837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="37" t="s">
         <v>111</v>
       </c>
@@ -26819,7 +26861,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="39" t="s">
         <v>315</v>
       </c>
@@ -26843,7 +26885,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="37" t="s">
         <v>316</v>
       </c>
@@ -26867,7 +26909,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="39" t="s">
         <v>317</v>
       </c>
@@ -26891,7 +26933,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37" t="s">
         <v>318</v>
       </c>
@@ -26915,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="39" t="s">
         <v>212</v>
       </c>
@@ -26939,7 +26981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37" t="s">
         <v>275</v>
       </c>
@@ -26963,7 +27005,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="84" t="s">
         <v>156</v>
       </c>
@@ -26989,39 +27031,48 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A358:H358"/>
-    <mergeCell ref="A361:H361"/>
-    <mergeCell ref="A364:H364"/>
-    <mergeCell ref="A340:I340"/>
-    <mergeCell ref="A341:I341"/>
-    <mergeCell ref="A344:I344"/>
-    <mergeCell ref="A356:H356"/>
-    <mergeCell ref="A357:H357"/>
-    <mergeCell ref="A322:I322"/>
-    <mergeCell ref="A323:I323"/>
-    <mergeCell ref="A324:I324"/>
-    <mergeCell ref="A327:I327"/>
-    <mergeCell ref="A339:I339"/>
-    <mergeCell ref="A293:I293"/>
-    <mergeCell ref="A305:I305"/>
-    <mergeCell ref="A306:I306"/>
-    <mergeCell ref="A307:I307"/>
-    <mergeCell ref="A310:I310"/>
-    <mergeCell ref="A273:I273"/>
-    <mergeCell ref="A276:I276"/>
-    <mergeCell ref="A288:I288"/>
-    <mergeCell ref="A289:I289"/>
-    <mergeCell ref="A290:I290"/>
-    <mergeCell ref="A255:I255"/>
-    <mergeCell ref="A256:I256"/>
-    <mergeCell ref="A259:I259"/>
-    <mergeCell ref="A271:I271"/>
-    <mergeCell ref="A272:I272"/>
-    <mergeCell ref="A237:I237"/>
-    <mergeCell ref="A238:I238"/>
-    <mergeCell ref="A239:I239"/>
-    <mergeCell ref="A242:I242"/>
-    <mergeCell ref="A254:I254"/>
+    <mergeCell ref="A220:H220"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A222:H222"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="A191:I191"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A188:I188"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="A154:I154"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A170:I170"/>
+    <mergeCell ref="A171:I171"/>
+    <mergeCell ref="A174:I174"/>
+    <mergeCell ref="A186:I186"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -27034,106 +27085,97 @@
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A188:I188"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A153:I153"/>
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="A169:I169"/>
-    <mergeCell ref="A170:I170"/>
-    <mergeCell ref="A171:I171"/>
-    <mergeCell ref="A174:I174"/>
-    <mergeCell ref="A186:I186"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A220:H220"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A222:H222"/>
-    <mergeCell ref="A225:H225"/>
-    <mergeCell ref="A191:I191"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A237:I237"/>
+    <mergeCell ref="A238:I238"/>
+    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="A242:I242"/>
+    <mergeCell ref="A254:I254"/>
+    <mergeCell ref="A255:I255"/>
+    <mergeCell ref="A256:I256"/>
+    <mergeCell ref="A259:I259"/>
+    <mergeCell ref="A271:I271"/>
+    <mergeCell ref="A272:I272"/>
+    <mergeCell ref="A273:I273"/>
+    <mergeCell ref="A276:I276"/>
+    <mergeCell ref="A288:I288"/>
+    <mergeCell ref="A289:I289"/>
+    <mergeCell ref="A290:I290"/>
+    <mergeCell ref="A293:I293"/>
+    <mergeCell ref="A305:I305"/>
+    <mergeCell ref="A306:I306"/>
+    <mergeCell ref="A307:I307"/>
+    <mergeCell ref="A310:I310"/>
+    <mergeCell ref="A322:I322"/>
+    <mergeCell ref="A323:I323"/>
+    <mergeCell ref="A324:I324"/>
+    <mergeCell ref="A327:I327"/>
+    <mergeCell ref="A339:I339"/>
+    <mergeCell ref="A358:H358"/>
+    <mergeCell ref="A361:H361"/>
+    <mergeCell ref="A364:H364"/>
+    <mergeCell ref="A340:I340"/>
+    <mergeCell ref="A341:I341"/>
+    <mergeCell ref="A344:I344"/>
+    <mergeCell ref="A356:H356"/>
+    <mergeCell ref="A357:H357"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=48&amp;page=0 - footnotes"/>
-    <hyperlink ref="A50" r:id="rId2" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=49&amp;page=0 - footnotes"/>
-    <hyperlink ref="A16" r:id="rId3" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=47&amp;page=0 - footnotes"/>
-    <hyperlink ref="A65" r:id="rId4" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=50&amp;page=0 - footnotes"/>
-    <hyperlink ref="A82" r:id="rId5" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=36&amp;page=0 - footnotes"/>
-    <hyperlink ref="A99" r:id="rId6" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=9&amp;page=0 - footnotes"/>
-    <hyperlink ref="A116" r:id="rId7" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=10&amp;page=0 - footnotes"/>
-    <hyperlink ref="A133" r:id="rId8" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=11&amp;page=0 - footnotes"/>
-    <hyperlink ref="A150" r:id="rId9" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=12&amp;page=0 - footnotes"/>
-    <hyperlink ref="A167" r:id="rId10" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=13&amp;page=0 - footnotes"/>
-    <hyperlink ref="A184" r:id="rId11" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=14&amp;page=0 - footnotes"/>
-    <hyperlink ref="A201" r:id="rId12" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=15&amp;page=0 - footnotes"/>
-    <hyperlink ref="A218" r:id="rId13" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=16&amp;page=0 - footnotes"/>
-    <hyperlink ref="A235" r:id="rId14" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=1&amp;page=0 - footnotes"/>
-    <hyperlink ref="A252" r:id="rId15" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=46&amp;page=0 - footnotes"/>
-    <hyperlink ref="A269" r:id="rId16" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=37&amp;page=0 - footnotes"/>
-    <hyperlink ref="A286" r:id="rId17" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=39&amp;page=0 - footnotes"/>
-    <hyperlink ref="A303" r:id="rId18" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=40&amp;page=0 - footnotes"/>
-    <hyperlink ref="A320" r:id="rId19" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=41&amp;page=0 - footnotes"/>
-    <hyperlink ref="A337" r:id="rId20" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=42&amp;page=0 - footnotes"/>
-    <hyperlink ref="A354" r:id="rId21" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=38&amp;page=0 - footnotes"/>
-    <hyperlink ref="A363" r:id="rId22" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=agr&amp;juris=ca&amp;rn=1&amp;page=0 - footnotes"/>
+    <hyperlink ref="A33" r:id="rId1" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=48&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A50" r:id="rId2" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=49&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=47&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A65" r:id="rId4" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=50&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A82" r:id="rId5" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=36&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A99" r:id="rId6" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=9&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A116" r:id="rId7" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=10&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A133" r:id="rId8" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=11&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A150" r:id="rId9" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=12&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A167" r:id="rId10" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=13&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A184" r:id="rId11" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=14&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A201" r:id="rId12" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=15&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A218" r:id="rId13" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=16&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A235" r:id="rId14" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=1&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A252" r:id="rId15" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=46&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A269" r:id="rId16" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=37&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A286" r:id="rId17" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=39&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A303" r:id="rId18" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=40&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A320" r:id="rId19" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=41&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A337" r:id="rId20" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=42&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A354" r:id="rId21" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=id&amp;juris=ca&amp;rn=38&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A363" r:id="rId22" location="footnotes" tooltip="Footnote 1" display="http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=agr&amp;juris=ca&amp;rn=1&amp;page=0 - footnotes" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -27156,7 +27198,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -27179,12 +27221,12 @@
         <v>17833</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -27192,7 +27234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -27200,7 +27242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -27208,7 +27250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -27216,7 +27258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -27224,7 +27266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -27232,7 +27274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -27240,17 +27282,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>259</v>
       </c>
@@ -27261,45 +27303,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>71</v>
       </c>
@@ -27340,7 +27382,7 @@
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
@@ -27453,7 +27495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>109</v>
       </c>
@@ -27566,7 +27608,7 @@
         <v>7461.26</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -27679,7 +27721,7 @@
         <v>1051.44</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
@@ -27792,7 +27834,7 @@
         <v>738.01</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>111</v>
       </c>
@@ -27905,7 +27947,7 @@
         <v>4009.6</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
@@ -28018,7 +28060,7 @@
         <v>716.51</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>113</v>
       </c>
@@ -28131,7 +28173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>114</v>
       </c>
@@ -28244,7 +28286,7 @@
         <v>536.01</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>115</v>
       </c>
@@ -28357,7 +28399,7 @@
         <v>259.66000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>116</v>
       </c>
@@ -28470,7 +28512,7 @@
         <v>146.22999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -28583,34 +28625,34 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:37" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:37" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
@@ -28723,7 +28765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>109</v>
       </c>
@@ -28836,7 +28878,7 @@
         <v>6056.13</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>124</v>
       </c>
@@ -28949,7 +28991,7 @@
         <v>720.14</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
@@ -29062,7 +29104,7 @@
         <v>348.06</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>126</v>
       </c>
@@ -29175,7 +29217,7 @@
         <v>185.77</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>127</v>
       </c>
@@ -29288,7 +29330,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>128</v>
       </c>
@@ -29401,7 +29443,7 @@
         <v>1625.91</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>129</v>
       </c>
@@ -29514,7 +29556,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>130</v>
       </c>
@@ -29627,34 +29669,34 @@
         <v>1238.17</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:37" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:37" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>72</v>
       </c>
@@ -29767,7 +29809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>109</v>
       </c>
@@ -29880,34 +29922,34 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:37" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:38" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:38" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:38" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:38" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>72</v>
       </c>
@@ -30020,7 +30062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>134</v>
       </c>
@@ -30133,7 +30175,7 @@
         <v>2679948</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>135</v>
       </c>
@@ -30246,7 +30288,7 @@
         <v>43506.9</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>136</v>
       </c>
@@ -30359,7 +30401,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>137</v>
       </c>
@@ -30472,7 +30514,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>138</v>
       </c>
@@ -30585,7 +30627,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>2015</v>
       </c>
@@ -30695,7 +30737,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>319</v>
       </c>
@@ -30844,7 +30886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>320</v>
       </c>
@@ -30993,7 +31035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>321</v>
       </c>
@@ -31142,12 +31184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>323</v>
       </c>
@@ -31156,7 +31198,7 @@
         <v>5856170.8310000002</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -31165,7 +31207,7 @@
         <v>2246757.9070000001</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -31179,7 +31221,7 @@
       <c r="F71" s="58"/>
       <c r="G71" s="58"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -31188,7 +31230,7 @@
         <v>0.37271617112960193</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>327</v>
       </c>
@@ -31302,7 +31344,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B76" s="58" t="s">
         <v>328</v>
       </c>
@@ -31451,7 +31493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
         <v>321</v>
       </c>
@@ -31600,7 +31642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D79" s="58"/>
       <c r="E79" s="58"/>
       <c r="F79" s="58"/>
@@ -31649,24 +31691,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="58" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
@@ -31675,7 +31717,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -31685,7 +31727,7 @@
       </c>
       <c r="G3" s="58"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>295</v>
       </c>
@@ -31695,7 +31737,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>36</v>
       </c>
@@ -31705,7 +31747,7 @@
       </c>
       <c r="G5" s="58"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>35</v>
       </c>
@@ -31715,7 +31757,7 @@
       </c>
       <c r="G6" s="58"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>62</v>
       </c>
@@ -31725,7 +31767,7 @@
       </c>
       <c r="G7" s="58"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>68</v>
       </c>
@@ -31735,7 +31777,7 @@
       </c>
       <c r="G8" s="58"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -31745,7 +31787,7 @@
       </c>
       <c r="G9" s="58"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="58"/>
     </row>
   </sheetData>
@@ -31754,21 +31796,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>286</v>
       </c>
@@ -31780,7 +31822,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
@@ -31792,7 +31834,7 @@
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>287</v>
       </c>
@@ -31804,7 +31846,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>26</v>
       </c>
@@ -31830,7 +31872,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>19</v>
       </c>
@@ -31856,7 +31898,7 @@
         <v>9980511</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>19</v>
       </c>
@@ -31882,7 +31924,7 @@
         <v>148126049</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
@@ -31908,7 +31950,7 @@
         <v>154078451</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>28</v>
       </c>
@@ -31920,7 +31962,7 @@
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>291</v>
       </c>
@@ -31932,7 +31974,7 @@
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>292</v>
       </c>
@@ -31944,7 +31986,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -31954,7 +31996,7 @@
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>332</v>
       </c>
@@ -31968,7 +32010,7 @@
       <c r="F12" s="58"/>
       <c r="H12" s="58"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>333</v>
       </c>
@@ -31977,7 +32019,7 @@
         <v>570629.64554349624</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>334</v>
       </c>
@@ -31986,13 +32028,23 @@
         <v>894495.44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>335</v>
       </c>
       <c r="B15">
         <f ca="1">B13/B14</f>
         <v>0.63793466129184095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -32001,19 +32053,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>267</v>
       </c>
@@ -32021,7 +32073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -32033,7 +32085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -32046,7 +32098,7 @@
         <v>2.8372274925732688E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -32059,7 +32111,7 @@
         <v>0.11682028950744432</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -32071,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -32084,7 +32136,7 @@
         <v>0.33744828225459877</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -32103,7 +32155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32111,19 +32163,19 @@
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="16" customWidth="1"/>
-    <col min="2" max="13" width="8.7265625" style="16"/>
-    <col min="14" max="14" width="28.54296875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="16"/>
-    <col min="16" max="16" width="8.7265625" style="48" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="16" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="16"/>
+    <col min="14" max="14" width="28.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="16"/>
+    <col min="16" max="16" width="8.7109375" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="16" customWidth="1"/>
     <col min="18" max="18" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="16"/>
+    <col min="19" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="46" t="s">
         <v>154</v>
       </c>
@@ -32170,7 +32222,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="97" t="s">
         <v>43</v>
@@ -32188,7 +32240,7 @@
       <c r="M2" s="99"/>
       <c r="N2" s="49"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>163</v>
       </c>
@@ -32206,7 +32258,7 @@
       <c r="M3" s="102"/>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
@@ -32248,7 +32300,7 @@
       </c>
       <c r="N4" s="49"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -32290,7 +32342,7 @@
       </c>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>46</v>
       </c>
@@ -32332,7 +32384,7 @@
       </c>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -32374,7 +32426,7 @@
       </c>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>166</v>
       </c>
@@ -32416,7 +32468,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>167</v>
       </c>
@@ -32458,7 +32510,7 @@
       </c>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>168</v>
       </c>
@@ -32500,7 +32552,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>169</v>
       </c>
@@ -32542,7 +32594,7 @@
       </c>
       <c r="N11" s="49"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>170</v>
       </c>
@@ -32584,7 +32636,7 @@
       </c>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>171</v>
       </c>
@@ -32602,7 +32654,7 @@
       <c r="M13" s="102"/>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>172</v>
       </c>
@@ -32644,7 +32696,7 @@
       </c>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>173</v>
       </c>
@@ -32686,7 +32738,7 @@
       </c>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>174</v>
       </c>
@@ -32773,7 +32825,7 @@
       <c r="P17" s="49"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>175</v>
       </c>
@@ -32821,7 +32873,7 @@
       </c>
       <c r="P18" s="49"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
@@ -32962,7 +33014,7 @@
       </c>
       <c r="P21" s="49"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
@@ -33005,7 +33057,7 @@
       <c r="N22" s="49"/>
       <c r="P22" s="49"/>
     </row>
-    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>176</v>
       </c>
@@ -33100,7 +33152,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>178</v>
       </c>
@@ -33145,7 +33197,7 @@
       <c r="N25" s="49"/>
       <c r="P25" s="49"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>179</v>
       </c>
@@ -33193,7 +33245,7 @@
       </c>
       <c r="P26" s="49"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>180</v>
       </c>
@@ -33246,7 +33298,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>181</v>
       </c>
@@ -33397,7 +33449,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>184</v>
       </c>
@@ -33448,7 +33500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>185</v>
       </c>
@@ -33497,7 +33549,7 @@
       </c>
       <c r="P32" s="49"/>
     </row>
-    <row r="33" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>186</v>
       </c>
@@ -33545,7 +33597,7 @@
       </c>
       <c r="P33" s="49"/>
     </row>
-    <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>187</v>
       </c>
@@ -33593,7 +33645,7 @@
       </c>
       <c r="P34" s="49"/>
     </row>
-    <row r="35" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>188</v>
       </c>
@@ -33636,7 +33688,7 @@
       <c r="N35" s="49"/>
       <c r="P35" s="49"/>
     </row>
-    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>189</v>
       </c>
@@ -33679,7 +33731,7 @@
       <c r="N36" s="49"/>
       <c r="P36" s="49"/>
     </row>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>190</v>
       </c>
@@ -33723,7 +33775,7 @@
       <c r="P37" s="49"/>
       <c r="Q37" s="29"/>
     </row>
-    <row r="38" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>191</v>
       </c>
@@ -33766,7 +33818,7 @@
       <c r="N38" s="49"/>
       <c r="P38" s="49"/>
     </row>
-    <row r="39" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>192</v>
       </c>
@@ -33809,7 +33861,7 @@
       <c r="N39" s="49"/>
       <c r="P39" s="49"/>
     </row>
-    <row r="40" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>193</v>
       </c>
@@ -33852,7 +33904,7 @@
       <c r="N40" s="49"/>
       <c r="P40" s="49"/>
     </row>
-    <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>194</v>
       </c>
@@ -33895,7 +33947,7 @@
       <c r="N41" s="49"/>
       <c r="P41" s="49"/>
     </row>
-    <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>195</v>
       </c>
@@ -33938,7 +33990,7 @@
       <c r="N42" s="49"/>
       <c r="P42" s="49"/>
     </row>
-    <row r="43" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>196</v>
       </c>
@@ -33986,7 +34038,7 @@
       </c>
       <c r="P43" s="49"/>
     </row>
-    <row r="44" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>197</v>
       </c>
@@ -34029,7 +34081,7 @@
       <c r="N44" s="49"/>
       <c r="P44" s="49"/>
     </row>
-    <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>198</v>
       </c>
@@ -34072,7 +34124,7 @@
       <c r="N45" s="49"/>
       <c r="P45" s="49"/>
     </row>
-    <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>62</v>
       </c>
@@ -34120,7 +34172,7 @@
       </c>
       <c r="P46" s="49"/>
     </row>
-    <row r="47" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>199</v>
       </c>
@@ -34163,7 +34215,7 @@
       <c r="N47" s="49"/>
       <c r="P47" s="49"/>
     </row>
-    <row r="48" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>200</v>
       </c>
@@ -34206,7 +34258,7 @@
       <c r="N48" s="49"/>
       <c r="P48" s="49"/>
     </row>
-    <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>201</v>
       </c>
@@ -34249,7 +34301,7 @@
       <c r="N49" s="49"/>
       <c r="P49" s="49"/>
     </row>
-    <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>202</v>
       </c>
@@ -34292,10 +34344,10 @@
       <c r="N50" s="49"/>
       <c r="P50" s="49"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P51" s="49"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
         <v>67</v>
       </c>
@@ -34322,7 +34374,7 @@
       <c r="L52" s="23"/>
       <c r="P52" s="49"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P53" s="49"/>
     </row>
   </sheetData>
@@ -34337,26 +34389,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -34379,7 +34431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -34407,7 +34459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -34435,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -34463,7 +34515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -34490,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -34519,7 +34571,7 @@
         <v>388000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -34547,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -34571,7 +34623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -34599,7 +34651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>247</v>
       </c>
@@ -34613,7 +34665,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
         <v>23</v>
       </c>
@@ -34642,7 +34694,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>248</v>
       </c>
@@ -34683,7 +34735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>249</v>
       </c>
@@ -34724,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>250</v>
       </c>
@@ -34765,7 +34817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>251</v>
       </c>
@@ -34806,7 +34858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>252</v>
       </c>
@@ -34847,7 +34899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>253</v>
       </c>
@@ -34888,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>254</v>
       </c>
@@ -34929,7 +34981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>255</v>
       </c>
@@ -34970,7 +35022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>256</v>
       </c>
@@ -35002,8 +35054,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
         <v>279</v>
       </c>
@@ -35023,7 +35075,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
         <v>280</v>
       </c>
@@ -35033,7 +35085,7 @@
       <c r="E29" s="77"/>
       <c r="F29" s="77"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>281</v>
       </c>
@@ -35053,7 +35105,7 @@
         <v>9980511</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>283</v>
       </c>
@@ -35073,75 +35125,75 @@
         <v>148126049</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E32" s="62">
         <f>SUM(E30:E31)</f>
         <v>158508235</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="63"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" location="F" display="http://www5.statcan.gc.ca/cansim/a47 - F"/>
+    <hyperlink ref="A29" r:id="rId1" location="F" display="http://www5.statcan.gc.ca/cansim/a47 - F" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
